--- a/Code/Results/Cases/Case_1_196/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_196/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.281502201534224</v>
+        <v>7.785765451129849</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>2.883038750749964</v>
+        <v>4.31035753193636</v>
       </c>
       <c r="E2">
-        <v>30.0728570882941</v>
+        <v>16.50157647476988</v>
       </c>
       <c r="F2">
-        <v>25.08313767944566</v>
+        <v>25.39530495257704</v>
       </c>
       <c r="G2">
-        <v>36.06769741809156</v>
+        <v>31.53344868302607</v>
       </c>
       <c r="H2">
-        <v>10.53990925923818</v>
+        <v>14.32394333831859</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>19.92588763407105</v>
+        <v>11.68655257041071</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>11.6067915562485</v>
+        <v>17.95006968125875</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6.917659348157869</v>
+        <v>7.713313600657076</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>2.932009180689383</v>
+        <v>4.318801759986284</v>
       </c>
       <c r="E3">
-        <v>27.84349563939112</v>
+        <v>15.56285113366674</v>
       </c>
       <c r="F3">
-        <v>23.83915167674264</v>
+        <v>25.20059355215029</v>
       </c>
       <c r="G3">
-        <v>34.01158361466388</v>
+        <v>31.09416623933375</v>
       </c>
       <c r="H3">
-        <v>10.28756989131075</v>
+        <v>14.33171692962111</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>18.63576017916732</v>
+        <v>11.16617592998095</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>11.87289132685398</v>
+        <v>18.02170305331745</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.687882278553585</v>
+        <v>7.670353462034604</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>2.962088378030572</v>
+        <v>4.324181694981841</v>
       </c>
       <c r="E4">
-        <v>26.41499414158557</v>
+        <v>14.9619650266093</v>
       </c>
       <c r="F4">
-        <v>23.0754693510989</v>
+        <v>25.08960230092062</v>
       </c>
       <c r="G4">
-        <v>32.73940434652226</v>
+        <v>30.83519837125831</v>
       </c>
       <c r="H4">
-        <v>10.14203273592164</v>
+        <v>14.34021265029237</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>17.80396629977885</v>
+        <v>10.84420221602267</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>12.03847670497621</v>
+        <v>18.06759779777195</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.59276848614344</v>
+        <v>7.653249913651799</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>2.974362384749058</v>
+        <v>4.326423523078789</v>
       </c>
       <c r="E5">
-        <v>25.81740746308425</v>
+        <v>14.71120727542089</v>
       </c>
       <c r="F5">
-        <v>22.76460606736806</v>
+        <v>25.04656587895609</v>
       </c>
       <c r="G5">
-        <v>32.21899806558887</v>
+        <v>30.73250955627219</v>
       </c>
       <c r="H5">
-        <v>10.0850461962248</v>
+        <v>14.34460786340713</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>17.45495589819007</v>
+        <v>10.71077995491267</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>12.10656852047265</v>
+        <v>18.08678276729035</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.576889747115184</v>
+        <v>7.650434779130951</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>2.976401864679847</v>
+        <v>4.326798775812544</v>
       </c>
       <c r="E6">
-        <v>25.71723218362156</v>
+        <v>14.66922223883073</v>
       </c>
       <c r="F6">
-        <v>22.71301856767053</v>
+        <v>25.03955327435714</v>
       </c>
       <c r="G6">
-        <v>32.13248136698395</v>
+        <v>30.71563374547571</v>
       </c>
       <c r="H6">
-        <v>10.07572249872536</v>
+        <v>14.3453939482011</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>17.39639435397554</v>
+        <v>10.68849790072431</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>12.11791392857035</v>
+        <v>18.08999761105579</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.686605342590362</v>
+        <v>7.670121140519099</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>2.962253824929336</v>
+        <v>4.32421172831377</v>
       </c>
       <c r="E7">
-        <v>26.40699805694744</v>
+        <v>14.95860667923422</v>
       </c>
       <c r="F7">
-        <v>23.07127508994507</v>
+        <v>25.0890129661037</v>
       </c>
       <c r="G7">
-        <v>32.73239328468237</v>
+        <v>30.83380178685436</v>
       </c>
       <c r="H7">
-        <v>10.14125485634704</v>
+        <v>14.34026815181424</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>17.79930019046726</v>
+        <v>10.84241152074396</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>12.03939244950991</v>
+        <v>18.06785457705309</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.157441389707883</v>
+        <v>7.760479300878995</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>2.899929761825708</v>
+        <v>4.313228832259986</v>
       </c>
       <c r="E8">
-        <v>29.3162688187926</v>
+        <v>16.18313635031945</v>
       </c>
       <c r="F8">
-        <v>24.65434913764688</v>
+        <v>25.32641701658859</v>
       </c>
       <c r="G8">
-        <v>35.36099899758898</v>
+        <v>31.37983776590339</v>
       </c>
       <c r="H8">
-        <v>10.45092649132487</v>
+        <v>14.32584938279848</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>19.48922698115807</v>
+        <v>11.5016024265318</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>11.69812498191214</v>
+        <v>17.97437321880126</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>8.025684582762368</v>
+        <v>7.948888733360477</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>2.777175117189404</v>
+        <v>4.293222422821444</v>
       </c>
       <c r="E9">
-        <v>34.57085959062415</v>
+        <v>18.47025926389171</v>
       </c>
       <c r="F9">
-        <v>27.75001055228873</v>
+        <v>25.85790355745931</v>
       </c>
       <c r="G9">
-        <v>40.42588060585494</v>
+        <v>32.52949435554705</v>
       </c>
       <c r="H9">
-        <v>11.13470658811278</v>
+        <v>14.32722464697254</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>22.49334885284915</v>
+        <v>12.98184076344986</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>11.04327294229383</v>
+        <v>17.80613981030393</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.691945774263269</v>
+        <v>8.092924865315766</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>2.685800472537835</v>
+        <v>4.2794333634448</v>
       </c>
       <c r="E10">
-        <v>38.19296245859389</v>
+        <v>20.12035500672825</v>
       </c>
       <c r="F10">
-        <v>30.01207894794519</v>
+        <v>26.28560957210826</v>
       </c>
       <c r="G10">
-        <v>44.10178841145352</v>
+        <v>33.4132552035121</v>
       </c>
       <c r="H10">
-        <v>11.68674213917575</v>
+        <v>14.34643459583882</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>24.52011338168696</v>
+        <v>13.98438055717081</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>10.56609726027179</v>
+        <v>17.69161383268949</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>9.00727202455189</v>
+        <v>8.15940119849162</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>2.643799142542379</v>
+        <v>4.273352988582898</v>
       </c>
       <c r="E11">
-        <v>39.79850202667718</v>
+        <v>20.82910540226662</v>
       </c>
       <c r="F11">
-        <v>31.04876539422243</v>
+        <v>26.48755809502172</v>
       </c>
       <c r="G11">
-        <v>45.81223440860439</v>
+        <v>33.82183133405616</v>
       </c>
       <c r="H11">
-        <v>11.94950895538311</v>
+        <v>14.35914105179858</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>25.40538472177055</v>
+        <v>14.41580243235096</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>10.34862905772847</v>
+        <v>17.64145774673831</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>9.124304021003725</v>
+        <v>8.184688534835988</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>2.627819435196634</v>
+        <v>4.271077799848347</v>
       </c>
       <c r="E12">
-        <v>40.40135460447873</v>
+        <v>21.09150582798643</v>
       </c>
       <c r="F12">
-        <v>31.48364402309859</v>
+        <v>26.56502871381348</v>
       </c>
       <c r="G12">
-        <v>46.45764186003068</v>
+        <v>33.97732620113138</v>
       </c>
       <c r="H12">
-        <v>12.05077743733588</v>
+        <v>14.36452349344003</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>25.73557500485752</v>
+        <v>14.57561907280052</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>10.26610206815195</v>
+        <v>17.62274230672197</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>9.099204064917805</v>
+        <v>8.179237740143449</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>2.631264442678857</v>
+        <v>4.271566592813239</v>
       </c>
       <c r="E13">
-        <v>40.27173119637323</v>
+        <v>21.0352589586018</v>
       </c>
       <c r="F13">
-        <v>31.39008890815138</v>
+        <v>26.5483007343501</v>
       </c>
       <c r="G13">
-        <v>46.3187356923431</v>
+        <v>33.9438057058062</v>
       </c>
       <c r="H13">
-        <v>12.0288872973501</v>
+        <v>14.36333890514032</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>25.66468271473297</v>
+        <v>14.54135785594299</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>10.28388566012506</v>
+        <v>17.6267606935372</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>9.016947683612999</v>
+        <v>8.161479445401932</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>2.642486041329341</v>
+        <v>4.273165261876184</v>
       </c>
       <c r="E14">
-        <v>39.84819600596965</v>
+        <v>20.85081304975229</v>
       </c>
       <c r="F14">
-        <v>31.08459039935693</v>
+        <v>26.49391204358995</v>
       </c>
       <c r="G14">
-        <v>45.86537558978681</v>
+        <v>33.83460938135165</v>
       </c>
       <c r="H14">
-        <v>11.95780441339055</v>
+        <v>14.35957242994365</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>25.4326492466254</v>
+        <v>14.42902190278481</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>10.34184379234907</v>
+        <v>17.63991246296481</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.966255173640736</v>
+        <v>8.150616168754206</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>2.649349541372783</v>
+        <v>4.274148040406357</v>
       </c>
       <c r="E15">
-        <v>39.58813060825299</v>
+        <v>20.7370558376652</v>
       </c>
       <c r="F15">
-        <v>30.90359528887676</v>
+        <v>26.46072529830625</v>
       </c>
       <c r="G15">
-        <v>45.58739503960972</v>
+        <v>33.76781964568672</v>
       </c>
       <c r="H15">
-        <v>11.91449694181099</v>
+        <v>14.35733968470073</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>25.28987300911215</v>
+        <v>14.35974989568026</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>10.37731801509974</v>
+        <v>17.64800439956062</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.671003869548056</v>
+        <v>8.088597707730896</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>2.688535519293167</v>
+        <v>4.27983457121316</v>
       </c>
       <c r="E16">
-        <v>38.08726458935905</v>
+        <v>20.07319665725091</v>
       </c>
       <c r="F16">
-        <v>29.94494289569876</v>
+        <v>26.27255485703306</v>
       </c>
       <c r="G16">
-        <v>43.98965810932999</v>
+        <v>33.38667136179097</v>
       </c>
       <c r="H16">
-        <v>11.66981119320334</v>
+        <v>14.34568407269759</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>24.46153941515373</v>
+        <v>13.95568932276941</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>10.58029147874407</v>
+        <v>17.69493058827675</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.485603030554143</v>
+        <v>8.050779299303864</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>2.71245420510594</v>
+        <v>4.2833720903345</v>
       </c>
       <c r="E17">
-        <v>37.15635037110493</v>
+        <v>19.65523757679547</v>
       </c>
       <c r="F17">
-        <v>29.35633412091785</v>
+        <v>26.15896412815482</v>
       </c>
       <c r="G17">
-        <v>43.02781508840787</v>
+        <v>33.15440810419199</v>
       </c>
       <c r="H17">
-        <v>11.52274376586428</v>
+        <v>14.33955031091142</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>23.9441370026075</v>
+        <v>13.70149165046344</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>10.70462723823252</v>
+        <v>17.72421453859569</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.377382217390082</v>
+        <v>8.029118279905077</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>2.726171337106866</v>
+        <v>4.285424901222303</v>
       </c>
       <c r="E18">
-        <v>36.61687990039138</v>
+        <v>19.41089392284453</v>
       </c>
       <c r="F18">
-        <v>29.01755301836856</v>
+        <v>26.094328685766</v>
       </c>
       <c r="G18">
-        <v>42.48017598773545</v>
+        <v>33.02144269178243</v>
       </c>
       <c r="H18">
-        <v>11.43924382015662</v>
+        <v>14.33639582021857</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>23.64306883928013</v>
+        <v>13.55296504811015</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>10.77611238259736</v>
+        <v>17.74124081902894</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.340467436498802</v>
+        <v>8.021800581681003</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>2.73080921351062</v>
+        <v>4.286123070961987</v>
       </c>
       <c r="E19">
-        <v>36.43350561455496</v>
+        <v>19.32748478653457</v>
       </c>
       <c r="F19">
-        <v>28.90280532310075</v>
+        <v>26.07256620879228</v>
       </c>
       <c r="G19">
-        <v>42.294560190532</v>
+        <v>32.97653552893514</v>
       </c>
       <c r="H19">
-        <v>11.41115688136451</v>
+        <v>14.33539189429292</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>23.54052940894142</v>
+        <v>13.50227863496509</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>10.8003143296037</v>
+        <v>17.7470370955378</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.505502838195049</v>
+        <v>8.054795868226927</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>2.709912282801699</v>
+        <v>4.282993642243079</v>
       </c>
       <c r="E20">
-        <v>37.25585889848774</v>
+        <v>19.70013803327323</v>
       </c>
       <c r="F20">
-        <v>29.41901545611858</v>
+        <v>26.17098417834836</v>
       </c>
       <c r="G20">
-        <v>43.12908018821199</v>
+        <v>33.17906931490344</v>
       </c>
       <c r="H20">
-        <v>11.53828601984872</v>
+        <v>14.34016460259319</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>23.99957311428965</v>
+        <v>13.72879150761469</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>10.69139534880574</v>
+        <v>17.72107829250193</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>9.041172510179782</v>
+        <v>8.166692570313968</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>2.639192099110926</v>
+        <v>4.272694955299484</v>
       </c>
       <c r="E21">
-        <v>39.97272960442474</v>
+        <v>20.90515151596225</v>
       </c>
       <c r="F21">
-        <v>31.1743866690845</v>
+        <v>26.50986078470504</v>
       </c>
       <c r="G21">
-        <v>45.99859672242972</v>
+        <v>33.86666324062036</v>
       </c>
       <c r="H21">
-        <v>11.97863445944868</v>
+        <v>14.36066324519166</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>25.50093788223761</v>
+        <v>14.46211419439014</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>10.3248259072747</v>
+        <v>17.63604194974683</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>9.377439481780465</v>
+        <v>8.240478569139542</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>2.592533205580841</v>
+        <v>4.266123242994943</v>
       </c>
       <c r="E22">
-        <v>41.719006194681</v>
+        <v>21.6578112529046</v>
       </c>
       <c r="F22">
-        <v>32.43595073640281</v>
+        <v>26.73711672890758</v>
       </c>
       <c r="G22">
-        <v>47.87342198305032</v>
+        <v>34.32049330459522</v>
       </c>
       <c r="H22">
-        <v>12.27677184407157</v>
+        <v>14.37738694837132</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>26.45291219398867</v>
+        <v>14.92066909056191</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>10.084154802081</v>
+        <v>17.58208294115437</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>9.199218562744447</v>
+        <v>8.201045208977011</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>2.617479466177473</v>
+        <v>4.269616244093679</v>
       </c>
       <c r="E23">
-        <v>40.78932198801075</v>
+        <v>21.25928308258693</v>
       </c>
       <c r="F23">
-        <v>31.76380564560408</v>
+        <v>26.61531889615125</v>
       </c>
       <c r="G23">
-        <v>46.87380769073538</v>
+        <v>34.07792286941216</v>
       </c>
       <c r="H23">
-        <v>12.11666759929218</v>
+        <v>14.36815687850211</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>25.94741381268714</v>
+        <v>14.67782726714495</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>10.21274976687171</v>
+        <v>17.61073447907764</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.496511219570541</v>
+        <v>8.052979722481385</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>2.711061590960959</v>
+        <v>4.283164679245586</v>
       </c>
       <c r="E24">
-        <v>37.21088447869104</v>
+        <v>19.67985116552336</v>
       </c>
       <c r="F24">
-        <v>29.3906784245948</v>
+        <v>26.16554782365762</v>
       </c>
       <c r="G24">
-        <v>43.08330241173341</v>
+        <v>33.1679182063371</v>
       </c>
       <c r="H24">
-        <v>11.5312560994443</v>
+        <v>14.3398857228941</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>23.97452169937553</v>
+        <v>13.71645667012516</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>10.69737746834494</v>
+        <v>17.72249559566321</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.797244670165584</v>
+        <v>7.896843147409571</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>2.81053034137984</v>
+        <v>4.298473267233454</v>
       </c>
       <c r="E25">
-        <v>33.19411699554853</v>
+        <v>17.82521834166479</v>
       </c>
       <c r="F25">
-        <v>26.91452682866973</v>
+        <v>25.70735522412978</v>
       </c>
       <c r="G25">
-        <v>39.06648512807665</v>
+        <v>32.21095098983222</v>
       </c>
       <c r="H25">
-        <v>10.94124687741518</v>
+        <v>14.32366341434336</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>21.71304251443086</v>
+        <v>12.59089941175386</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>11.21935340175326</v>
+        <v>17.85004906668011</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_196/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_196/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.785765451129849</v>
+        <v>7.281502201534214</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>4.31035753193636</v>
+        <v>2.883038750750034</v>
       </c>
       <c r="E2">
-        <v>16.50157647476988</v>
+        <v>30.07285708829406</v>
       </c>
       <c r="F2">
-        <v>25.39530495257704</v>
+        <v>25.08313767944564</v>
       </c>
       <c r="G2">
-        <v>31.53344868302607</v>
+        <v>36.06769741809154</v>
       </c>
       <c r="H2">
-        <v>14.32394333831859</v>
+        <v>10.53990925923815</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>11.68655257041071</v>
+        <v>19.92588763407109</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>17.95006968125875</v>
+        <v>11.6067915562485</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>7.713313600657076</v>
+        <v>6.91765934815784</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>4.318801759986284</v>
+        <v>2.932009180689391</v>
       </c>
       <c r="E3">
-        <v>15.56285113366674</v>
+        <v>27.84349563939125</v>
       </c>
       <c r="F3">
-        <v>25.20059355215029</v>
+        <v>23.83915167674264</v>
       </c>
       <c r="G3">
-        <v>31.09416623933375</v>
+        <v>34.01158361466386</v>
       </c>
       <c r="H3">
-        <v>14.33171692962111</v>
+        <v>10.28756989131072</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>11.16617592998095</v>
+        <v>18.63576017916737</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>18.02170305331745</v>
+        <v>11.87289132685398</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7.670353462034604</v>
+        <v>6.68788227855365</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>4.324181694981841</v>
+        <v>2.962088378030575</v>
       </c>
       <c r="E4">
-        <v>14.9619650266093</v>
+        <v>26.41499414158561</v>
       </c>
       <c r="F4">
-        <v>25.08960230092062</v>
+        <v>23.07546935109882</v>
       </c>
       <c r="G4">
-        <v>30.83519837125831</v>
+        <v>32.73940434652221</v>
       </c>
       <c r="H4">
-        <v>14.34021265029237</v>
+        <v>10.14203273592159</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>10.84420221602267</v>
+        <v>17.80396629977887</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>18.06759779777195</v>
+        <v>12.03847670497611</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>7.653249913651799</v>
+        <v>6.592768486143469</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>4.326423523078789</v>
+        <v>2.974362384749055</v>
       </c>
       <c r="E5">
-        <v>14.71120727542089</v>
+        <v>25.81740746308426</v>
       </c>
       <c r="F5">
-        <v>25.04656587895609</v>
+        <v>22.76460606736795</v>
       </c>
       <c r="G5">
-        <v>30.73250955627219</v>
+        <v>32.21899806558881</v>
       </c>
       <c r="H5">
-        <v>14.34460786340713</v>
+        <v>10.08504619622471</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>10.71077995491267</v>
+        <v>17.4549558981901</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>18.08678276729035</v>
+        <v>12.10656852047262</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7.650434779130951</v>
+        <v>6.576889747115193</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>4.326798775812544</v>
+        <v>2.976401864679578</v>
       </c>
       <c r="E6">
-        <v>14.66922223883073</v>
+        <v>25.71723218362161</v>
       </c>
       <c r="F6">
-        <v>25.03955327435714</v>
+        <v>22.7130185676706</v>
       </c>
       <c r="G6">
-        <v>30.71563374547571</v>
+        <v>32.13248136698402</v>
       </c>
       <c r="H6">
-        <v>14.3453939482011</v>
+        <v>10.07572249872537</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>10.68849790072431</v>
+        <v>17.39639435397552</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>18.08999761105579</v>
+        <v>12.11791392857038</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7.670121140519099</v>
+        <v>6.68660534259037</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>4.32421172831377</v>
+        <v>2.962253824929467</v>
       </c>
       <c r="E7">
-        <v>14.95860667923422</v>
+        <v>26.40699805694745</v>
       </c>
       <c r="F7">
-        <v>25.0890129661037</v>
+        <v>23.07127508994503</v>
       </c>
       <c r="G7">
-        <v>30.83380178685436</v>
+        <v>32.73239328468235</v>
       </c>
       <c r="H7">
-        <v>14.34026815181424</v>
+        <v>10.141254856347</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>10.84241152074396</v>
+        <v>17.79930019046727</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>18.06785457705309</v>
+        <v>12.03939244950994</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.760479300878995</v>
+        <v>7.157441389707843</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>4.313228832259986</v>
+        <v>2.899929761825579</v>
       </c>
       <c r="E8">
-        <v>16.18313635031945</v>
+        <v>29.31626881879256</v>
       </c>
       <c r="F8">
-        <v>25.32641701658859</v>
+        <v>24.65434913764689</v>
       </c>
       <c r="G8">
-        <v>31.37983776590339</v>
+        <v>35.36099899758895</v>
       </c>
       <c r="H8">
-        <v>14.32584938279848</v>
+        <v>10.45092649132486</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>11.5016024265318</v>
+        <v>19.48922698115802</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>17.97437321880126</v>
+        <v>11.69812498191214</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7.948888733360477</v>
+        <v>8.025684582762393</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>4.293222422821444</v>
+        <v>2.777175117189466</v>
       </c>
       <c r="E9">
-        <v>18.47025926389171</v>
+        <v>34.5708595906241</v>
       </c>
       <c r="F9">
-        <v>25.85790355745931</v>
+        <v>27.75001055228873</v>
       </c>
       <c r="G9">
-        <v>32.52949435554705</v>
+        <v>40.42588060585498</v>
       </c>
       <c r="H9">
-        <v>14.32722464697254</v>
+        <v>11.1347065881128</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>12.98184076344986</v>
+        <v>22.49334885284915</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>17.80613981030393</v>
+        <v>11.04327294229376</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.092924865315766</v>
+        <v>8.691945774263319</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>4.2794333634448</v>
+        <v>2.685800472537771</v>
       </c>
       <c r="E10">
-        <v>20.12035500672825</v>
+        <v>38.19296245859402</v>
       </c>
       <c r="F10">
-        <v>26.28560957210826</v>
+        <v>30.0120789479452</v>
       </c>
       <c r="G10">
-        <v>33.4132552035121</v>
+        <v>44.10178841145358</v>
       </c>
       <c r="H10">
-        <v>14.34643459583882</v>
+        <v>11.68674213917574</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>13.98438055717081</v>
+        <v>24.52011338168697</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>17.69161383268949</v>
+        <v>10.56609726027169</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.15940119849162</v>
+        <v>9.00727202455184</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>4.273352988582898</v>
+        <v>2.643799142542263</v>
       </c>
       <c r="E11">
-        <v>20.82910540226662</v>
+        <v>39.79850202667713</v>
       </c>
       <c r="F11">
-        <v>26.48755809502172</v>
+        <v>31.04876539422238</v>
       </c>
       <c r="G11">
-        <v>33.82183133405616</v>
+        <v>45.81223440860433</v>
       </c>
       <c r="H11">
-        <v>14.35914105179858</v>
+        <v>11.94950895538313</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>14.41580243235096</v>
+        <v>25.40538472177053</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>17.64145774673831</v>
+        <v>10.34862905772851</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>8.184688534835988</v>
+        <v>9.124304021003699</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>4.271077799848347</v>
+        <v>2.627819435196765</v>
       </c>
       <c r="E12">
-        <v>21.09150582798643</v>
+        <v>40.40135460447883</v>
       </c>
       <c r="F12">
-        <v>26.56502871381348</v>
+        <v>31.48364402309866</v>
       </c>
       <c r="G12">
-        <v>33.97732620113138</v>
+        <v>46.45764186003075</v>
       </c>
       <c r="H12">
-        <v>14.36452349344003</v>
+        <v>12.05077743733587</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>14.57561907280052</v>
+        <v>25.73557500485754</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>17.62274230672197</v>
+        <v>10.26610206815188</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>8.179237740143449</v>
+        <v>9.099204064917783</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>4.271566592813239</v>
+        <v>2.631264442678745</v>
       </c>
       <c r="E13">
-        <v>21.0352589586018</v>
+        <v>40.27173119637317</v>
       </c>
       <c r="F13">
-        <v>26.5483007343501</v>
+        <v>31.39008890815136</v>
       </c>
       <c r="G13">
-        <v>33.9438057058062</v>
+        <v>46.31873569234311</v>
       </c>
       <c r="H13">
-        <v>14.36333890514032</v>
+        <v>12.02888729735011</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>14.54135785594299</v>
+        <v>25.66468271473294</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>17.6267606935372</v>
+        <v>10.28388566012503</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.161479445401932</v>
+        <v>9.016947683613004</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>4.273165261876184</v>
+        <v>2.642486041329337</v>
       </c>
       <c r="E14">
-        <v>20.85081304975229</v>
+        <v>39.84819600596954</v>
       </c>
       <c r="F14">
-        <v>26.49391204358995</v>
+        <v>31.08459039935688</v>
       </c>
       <c r="G14">
-        <v>33.83460938135165</v>
+        <v>45.86537558978673</v>
       </c>
       <c r="H14">
-        <v>14.35957242994365</v>
+        <v>11.95780441339053</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>14.42902190278481</v>
+        <v>25.43264924662536</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>17.63991246296481</v>
+        <v>10.34184379234907</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.150616168754206</v>
+        <v>8.966255173640743</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>4.274148040406357</v>
+        <v>2.649349541372898</v>
       </c>
       <c r="E15">
-        <v>20.7370558376652</v>
+        <v>39.58813060825298</v>
       </c>
       <c r="F15">
-        <v>26.46072529830625</v>
+        <v>30.90359528887677</v>
       </c>
       <c r="G15">
-        <v>33.76781964568672</v>
+        <v>45.58739503960973</v>
       </c>
       <c r="H15">
-        <v>14.35733968470073</v>
+        <v>11.91449694181099</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>14.35974989568026</v>
+        <v>25.28987300911215</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>17.64800439956062</v>
+        <v>10.37731801509975</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.088597707730896</v>
+        <v>8.671003869548064</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>4.27983457121316</v>
+        <v>2.688535519293167</v>
       </c>
       <c r="E16">
-        <v>20.07319665725091</v>
+        <v>38.08726458935909</v>
       </c>
       <c r="F16">
-        <v>26.27255485703306</v>
+        <v>29.94494289569876</v>
       </c>
       <c r="G16">
-        <v>33.38667136179097</v>
+        <v>43.98965810933005</v>
       </c>
       <c r="H16">
-        <v>14.34568407269759</v>
+        <v>11.66981119320332</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>13.95568932276941</v>
+        <v>24.4615394151538</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>17.69493058827675</v>
+        <v>10.58029147874407</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.050779299303864</v>
+        <v>8.485603030554142</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>4.2833720903345</v>
+        <v>2.712454205105876</v>
       </c>
       <c r="E17">
-        <v>19.65523757679547</v>
+        <v>37.15635037110497</v>
       </c>
       <c r="F17">
-        <v>26.15896412815482</v>
+        <v>29.35633412091784</v>
       </c>
       <c r="G17">
-        <v>33.15440810419199</v>
+        <v>43.02781508840788</v>
       </c>
       <c r="H17">
-        <v>14.33955031091142</v>
+        <v>11.52274376586426</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>13.70149165046344</v>
+        <v>23.94413700260751</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>17.72421453859569</v>
+        <v>10.70462723823248</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.029118279905077</v>
+        <v>8.377382217390073</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>4.285424901222303</v>
+        <v>2.726171337106801</v>
       </c>
       <c r="E18">
-        <v>19.41089392284453</v>
+        <v>36.61687990039144</v>
       </c>
       <c r="F18">
-        <v>26.094328685766</v>
+        <v>29.01755301836856</v>
       </c>
       <c r="G18">
-        <v>33.02144269178243</v>
+        <v>42.48017598773549</v>
       </c>
       <c r="H18">
-        <v>14.33639582021857</v>
+        <v>11.43924382015661</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>13.55296504811015</v>
+        <v>23.64306883928018</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>17.74124081902894</v>
+        <v>10.77611238259733</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.021800581681003</v>
+        <v>8.340467436498798</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>4.286123070961987</v>
+        <v>2.730809213510628</v>
       </c>
       <c r="E19">
-        <v>19.32748478653457</v>
+        <v>36.43350561455497</v>
       </c>
       <c r="F19">
-        <v>26.07256620879228</v>
+        <v>28.90280532310078</v>
       </c>
       <c r="G19">
-        <v>32.97653552893514</v>
+        <v>42.29456019053203</v>
       </c>
       <c r="H19">
-        <v>14.33539189429292</v>
+        <v>11.41115688136455</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>13.50227863496509</v>
+        <v>23.54052940894141</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>17.7470370955378</v>
+        <v>10.80031432960366</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.054795868226927</v>
+        <v>8.505502838195007</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>4.282993642243079</v>
+        <v>2.709912282801634</v>
       </c>
       <c r="E20">
-        <v>19.70013803327323</v>
+        <v>37.25585889848785</v>
       </c>
       <c r="F20">
-        <v>26.17098417834836</v>
+        <v>29.41901545611859</v>
       </c>
       <c r="G20">
-        <v>33.17906931490344</v>
+        <v>43.12908018821201</v>
       </c>
       <c r="H20">
-        <v>14.34016460259319</v>
+        <v>11.53828601984872</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>13.72879150761469</v>
+        <v>23.99957311428961</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>17.72107829250193</v>
+        <v>10.69139534880571</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>8.166692570313968</v>
+        <v>9.04117251017975</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>4.272694955299484</v>
+        <v>2.639192099110991</v>
       </c>
       <c r="E21">
-        <v>20.90515151596225</v>
+        <v>39.97272960442464</v>
       </c>
       <c r="F21">
-        <v>26.50986078470504</v>
+        <v>31.17438666908445</v>
       </c>
       <c r="G21">
-        <v>33.86666324062036</v>
+        <v>45.99859672242963</v>
       </c>
       <c r="H21">
-        <v>14.36066324519166</v>
+        <v>11.9786344594487</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>14.46211419439014</v>
+        <v>25.50093788223759</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>17.63604194974683</v>
+        <v>10.32482590727477</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>8.240478569139542</v>
+        <v>9.37743948178044</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>4.266123242994943</v>
+        <v>2.592533205580902</v>
       </c>
       <c r="E22">
-        <v>21.6578112529046</v>
+        <v>41.71900619468102</v>
       </c>
       <c r="F22">
-        <v>26.73711672890758</v>
+        <v>32.43595073640286</v>
       </c>
       <c r="G22">
-        <v>34.32049330459522</v>
+        <v>47.87342198305036</v>
       </c>
       <c r="H22">
-        <v>14.37738694837132</v>
+        <v>12.27677184407158</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>14.92066909056191</v>
+        <v>26.45291219398874</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>17.58208294115437</v>
+        <v>10.08415480208101</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>8.201045208977011</v>
+        <v>9.199218562744454</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>4.269616244093679</v>
+        <v>2.617479466177533</v>
       </c>
       <c r="E23">
-        <v>21.25928308258693</v>
+        <v>40.78932198801073</v>
       </c>
       <c r="F23">
-        <v>26.61531889615125</v>
+        <v>31.76380564560413</v>
       </c>
       <c r="G23">
-        <v>34.07792286941216</v>
+        <v>46.87380769073545</v>
       </c>
       <c r="H23">
-        <v>14.36815687850211</v>
+        <v>12.1166675992922</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>14.67782726714495</v>
+        <v>25.9474138126872</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>17.61073447907764</v>
+        <v>10.21274976687172</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.052979722481385</v>
+        <v>8.496511219570488</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>4.283164679245586</v>
+        <v>2.711061590961083</v>
       </c>
       <c r="E24">
-        <v>19.67985116552336</v>
+        <v>37.21088447869106</v>
       </c>
       <c r="F24">
-        <v>26.16554782365762</v>
+        <v>29.3906784245948</v>
       </c>
       <c r="G24">
-        <v>33.1679182063371</v>
+        <v>43.08330241173343</v>
       </c>
       <c r="H24">
-        <v>14.3398857228941</v>
+        <v>11.53125609944428</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>13.71645667012516</v>
+        <v>23.97452169937556</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>17.72249559566321</v>
+        <v>10.69737746834491</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.896843147409571</v>
+        <v>7.797244670165614</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>4.298473267233454</v>
+        <v>2.810530341379843</v>
       </c>
       <c r="E25">
-        <v>17.82521834166479</v>
+        <v>33.19411699554846</v>
       </c>
       <c r="F25">
-        <v>25.70735522412978</v>
+        <v>26.91452682866975</v>
       </c>
       <c r="G25">
-        <v>32.21095098983222</v>
+        <v>39.06648512807664</v>
       </c>
       <c r="H25">
-        <v>14.32366341434336</v>
+        <v>10.94124687741518</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>12.59089941175386</v>
+        <v>21.7130425144308</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>17.85004906668011</v>
+        <v>11.21935340175326</v>
       </c>
       <c r="O25">
         <v>0</v>
